--- a/public/foldercompanies/Simon/Simon.xlsx
+++ b/public/foldercompanies/Simon/Simon.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_fourd</t>
+    <t xml:space="preserve">profile_one</t>
   </si>
   <si>
     <t xml:space="preserve">#33ffff</t>
@@ -247,10 +247,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="B2:B21 C31"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
@@ -306,7 +306,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -344,7 +344,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -382,7 +382,7 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -420,7 +420,7 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -458,7 +458,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -496,7 +496,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -534,7 +534,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -572,7 +572,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -610,7 +610,7 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -648,7 +648,7 @@
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -686,7 +686,7 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -724,7 +724,7 @@
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -762,7 +762,7 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -800,7 +800,7 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -838,7 +838,7 @@
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -876,7 +876,7 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -914,7 +914,7 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -952,7 +952,7 @@
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -990,7 +990,7 @@
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1028,7 +1028,7 @@
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
